--- a/seq2seq-chatbot/dataset/chatbot/예제.xlsx
+++ b/seq2seq-chatbot/dataset/chatbot/예제.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wltjr\Documents\카카오톡 받은 파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SRC\New_Python\seq2seq-chatbot\dataset\chatbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C76C666-9950-4600-BA2B-658AB5FD0EC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="65001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -68,7 +68,7 @@
       </rPr>
       <t>?</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -812,7 +812,7 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1594,7 +1594,7 @@
       </rPr>
       <t xml:space="preserve">.  </t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1610,7 +1610,7 @@
       </rPr>
       <t xml:space="preserve"> 이하의 유아들은 신체활동을 얼마나 해야하나요?</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1626,7 +1626,7 @@
       </rPr>
       <t>세의 아이들과 청소년들을 얼마나 운동을 해야하나요?</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1642,11 +1642,11 @@
       </rPr>
       <t xml:space="preserve"> 이상의 성인들은 얼마나 운동을 해야하나요?</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>연세가 많이 있는 노인분들은 얼마나 운동을 해야하나요?</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2171,11 +2171,11 @@
       </rPr>
       <t xml:space="preserve">. </t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1살 이하의 유아들은 얼마나 운동을 해야하나요?</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2561,7 +2561,7 @@
       </rPr>
       <t xml:space="preserve">어떠한 신체 활동이라도 아무 활동도 안 하는 것보다 훨씬 좋습니다. 처음에는 가볍게 시작하시고 차츰 강도, 기간과 빈도를 늘려가세요. </t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3267,7 +3267,7 @@
       </rPr>
       <t xml:space="preserve">. </t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4093,7 +4093,7 @@
       </rPr>
       <t xml:space="preserve">. </t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4799,7 +4799,7 @@
       </rPr>
       <t xml:space="preserve">. </t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4916,7 +4916,7 @@
       </rPr>
       <t>?</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6325,7 +6325,7 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7851,7 +7851,7 @@
       </rPr>
       <t xml:space="preserve">. </t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7867,7 +7867,7 @@
       </rPr>
       <t xml:space="preserve"> 운동을 안하는데 어떤 운동부터 시작하는게 좋을까요?</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7984,7 +7984,7 @@
       </rPr>
       <t>?</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8030,7 +8030,7 @@
       </rPr>
       <t xml:space="preserve"> 지낼수 있나요?</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8701,7 +8701,7 @@
       </rPr>
       <t>추천합니다</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8717,11 +8717,11 @@
       </rPr>
       <t xml:space="preserve"> 어린이와 청소년들은 집에서 어떻게 활발히 지낼수 있나요?</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>가족과 함께하는 놀이 온라인으로 할 수 있는 운동 수업을 참여해 보세요. 온라인 체육 수업이나 청소년들에게 적합한 규칙적인 운동도 찾아보세요. 줄넘기같이 아이들이 실내에서 활발하게 운동 할 수 있는 재밌는 게임들을 만들어 보세요. 저글링 같은 새로운 기술들도 배우도록 해보세요. 아령 운동과 같이 근력 개발에 도움되는 운동도 큰 도움이 됩니다. 아령이 없다면 빈 병을 모래로 채운 즉석 아령으로도 근력 운동을 할 수 있습니다.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8832,11 +8832,11 @@
       </rPr>
       <t>?</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">계단을 많이 이용하세요. 계단을 운동 수단으로 사용해보세요. 매일 하는 가사들도 신체 활동에 포함됩니다. 온라인 운동 수업에 참여하거나 좋아하는 음악을 들으며 심박수를 올려주고 주요 근육들을 쓰는 운동을 주기적으로 해보세요. 웨이트같이 근력에 도움을 주는 운동들은 큰 효과가 있습니다. 웨이트에 필요한 기구들이 없으면, 물병을 이용하거나 푸시업, 윗몸 일으키기나 스쿼트 같은 몸무게를 이용하는 근력 운동도 큰 도움이 됩니다. 운동을 즐기세요. 음악에 맞춰 춤을 추는 것도 운동이 됩니다. </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9286,22 +9286,22 @@
       <t xml:space="preserve">.
 </t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Q</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -9322,12 +9322,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Noto Sans CJK JP Regular"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -9414,16 +9408,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -9737,7 +9731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
@@ -9864,8 +9858,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>